--- a/biology/Zoologie/Certonardoa_semiregularis/Certonardoa_semiregularis.xlsx
+++ b/biology/Zoologie/Certonardoa_semiregularis/Certonardoa_semiregularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certonardoa
 Certonardoa semiregularis, unique représentant du genre Certonardoa, est une espèce d'étoiles de mer de la famille des Ophidiasteridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande étoile régulière à cinq longs bras cylindriques à bout pointu et légèrement relevé, avec un disque central assez réduit. Leur surface est bosselée suivant un damier relativement régulier. La coloration générale est généralement orangée, allant de la crème au rouge vif. La face ventrale est légèrement plus claire, et aplanie, parcourue par cinq sillons ambulacraires fins mais bien visibles.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces étoiles sont présentes principalement en mer de Chine orientale et jusqu'au Japon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces étoiles sont présentes principalement en mer de Chine orientale et jusqu'au Japon.
 </t>
         </is>
       </c>
